--- a/test_result.xlsx
+++ b/test_result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uyoung\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github.com\P-uyoung\X-Corps_Soil-detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BCAD99-C177-432F-8843-BBC9FCF098B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FEB941-68C4-4519-80AB-61C352163CAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{4DB91337-5ED8-42A7-9AAC-0866F90D92D2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>SOC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,12 +38,16 @@
     <t>centroid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +63,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -66,12 +85,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -91,8 +104,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -100,27 +119,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,120 +519,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B6D1C5-CD2B-4385-B055-5832E6FBE187}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>0.71</v>
       </c>
-      <c r="B2" s="3">
-        <f>RANK(A2,$A$2:$A$9,1)</f>
+      <c r="C2" s="5">
+        <f>RANK(B2,$B$2:$B$9,1)</f>
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C9" si="0">RANK(B3,$B$2:$B$9,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B9" si="0">RANK(A3,$A$2:$A$9,1)</f>
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="B4" s="2">
         <v>0.87</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>0.84</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
         <v>1.07</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.47</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.52</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="3">
         <v>0</v>
       </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
